--- a/Sprint 2/Sprint_Backlog/Sprint_backlog2.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint_backlog2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE97C6-F0D7-4200-95AB-D45CE823C0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9F1F01-51BB-4B15-A344-F89931A0F31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
